--- a/Datos_Tarea_1_2018_1.xlsx
+++ b/Datos_Tarea_1_2018_1.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="26215"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3fd0cf779603c471/Documentos/Clases UDP/Optimizacion 2018-1/Evaluaciones/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookretinadeeugenio/Desktop/ampl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB703224-4998-4D76-891C-B67596654DB6}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9465" xr2:uid="{EE26942F-0091-4FE8-B23E-F5AA59FEE868}"/>
+    <workbookView xWindow="12860" yWindow="460" windowWidth="12740" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Capacidad de la bodega de la fábrica (Bfab)</t>
   </si>
@@ -85,12 +87,102 @@
   </si>
   <si>
     <t xml:space="preserve">Tabla 3 - Parámetros de producción </t>
+  </si>
+  <si>
+    <t>dia1</t>
+  </si>
+  <si>
+    <t>dia2</t>
+  </si>
+  <si>
+    <t>dia3</t>
+  </si>
+  <si>
+    <t>dia4</t>
+  </si>
+  <si>
+    <t>dia5</t>
+  </si>
+  <si>
+    <t>dia6</t>
+  </si>
+  <si>
+    <t>dia7</t>
+  </si>
+  <si>
+    <t>dia8</t>
+  </si>
+  <si>
+    <t>dia9</t>
+  </si>
+  <si>
+    <t>dia10</t>
+  </si>
+  <si>
+    <t>dia11</t>
+  </si>
+  <si>
+    <t>dia12</t>
+  </si>
+  <si>
+    <t>dia13</t>
+  </si>
+  <si>
+    <t>dia14</t>
+  </si>
+  <si>
+    <t>dia15</t>
+  </si>
+  <si>
+    <t>dia16</t>
+  </si>
+  <si>
+    <t>dia17</t>
+  </si>
+  <si>
+    <t>dia18</t>
+  </si>
+  <si>
+    <t>dia19</t>
+  </si>
+  <si>
+    <t>dia20</t>
+  </si>
+  <si>
+    <t>dia21</t>
+  </si>
+  <si>
+    <t>dia22</t>
+  </si>
+  <si>
+    <t>dia23</t>
+  </si>
+  <si>
+    <t>dia24</t>
+  </si>
+  <si>
+    <t>dia25</t>
+  </si>
+  <si>
+    <t>dia26</t>
+  </si>
+  <si>
+    <t>dia27</t>
+  </si>
+  <si>
+    <t>dia28</t>
+  </si>
+  <si>
+    <t>dia29</t>
+  </si>
+  <si>
+    <t>dia30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -142,10 +234,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -154,7 +246,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -162,7 +254,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -492,25 +584,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8F9785-A7A0-4EA3-B05A-F94F92EDCDDD}">
-  <dimension ref="A2:AE24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:AE57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:C57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.06640625" style="2"/>
+    <col min="1" max="1" width="43.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -518,7 +610,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -526,7 +618,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
@@ -534,12 +626,12 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -547,7 +639,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
@@ -555,7 +647,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
@@ -563,7 +655,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
@@ -571,12 +663,12 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
@@ -671,7 +763,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
@@ -766,7 +858,7 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
@@ -861,7 +953,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>10</v>
       </c>
@@ -956,7 +1048,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
@@ -1051,7 +1143,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
@@ -1146,7 +1238,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>13</v>
       </c>
@@ -1241,7 +1333,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>14</v>
       </c>
@@ -1336,7 +1428,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>16</v>
       </c>
@@ -1431,7 +1523,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>15</v>
       </c>
@@ -1523,6 +1615,246 @@
         <v>3000</v>
       </c>
       <c r="AE24" s="5">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="2">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="2">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B43" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B45" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B46" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" s="2">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B47" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B48" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B49" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B50" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B51" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C51" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B52" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B53" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53" s="2">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B54" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B55" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B56" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C56" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B57" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" s="2">
         <v>2000</v>
       </c>
     </row>
